--- a/templates/QA-Automation/Create Engineering Item Master.xlsx
+++ b/templates/QA-Automation/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
   <si>
     <t>Item Number</t>
   </si>
@@ -433,6 +433,30 @@
   </si>
   <si>
     <t>a345f000000uI3IAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-N8P0Y</t>
+  </si>
+  <si>
+    <t>a345f000000uIzHAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-ZOJH8</t>
+  </si>
+  <si>
+    <t>a345f000000uJy9AAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-0Z37R</t>
+  </si>
+  <si>
+    <t>a345f000000uJyEAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-1XR7H</t>
+  </si>
+  <si>
+    <t>a345f000000uK0KAAU</t>
   </si>
 </sst>
 </file>
@@ -443,7 +467,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +495,54 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -553,7 +625,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -579,11 +651,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -599,8 +683,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="17" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="18" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1035,9 +1127,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.99609375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.1328125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.30859375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,13 +1151,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
